--- a/biology/Zoologie/Calommata_obesa/Calommata_obesa.xlsx
+++ b/biology/Zoologie/Calommata_obesa/Calommata_obesa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calommata obesa est une espèce d'araignées mygalomorphes de la famille des Atypidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calommata obesa est une espèce d'araignées mygalomorphes de la famille des Atypidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Thaïlande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Thaïlande.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Simon, 1886 : Arachnides recueillis par M. A. Pavie (sous chef du service des postes au Cambodge) dans le royaume de Siam, au Cambodge et en Cochinchine. Actes de la Société linnéenne de Bordeaux, vol. 40, p. 137-166 (texte intégral).</t>
         </is>
